--- a/Fitness.xlsx
+++ b/Fitness.xlsx
@@ -72,2507 +72,2507 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14.630626857202586</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6186285587908118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6169391717308694</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6169391717308694</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6169391717308694</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6169391717308694</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6167987444145118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6167987444145118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6154359999987684</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6154359999987684</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>13.459198285774015</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6148781974905395</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>12.460139019546357</v>
+        <v>16216.923928039178</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6117380160077972</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>12.460139019546357</v>
+        <v>1.6117380160077972</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6117380160077972</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6117380160077972</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6117380160077972</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6117380160077972</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6117380160077972</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6110167116840997</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6110167116840997</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6110167116840997</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6110167116840997</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>11.864900924308262</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6105020613238001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>11.264900924308261</v>
+        <v>1.6095045583969345</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>11.264900924308261</v>
+        <v>16147.545262329886</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11.264900924308261</v>
+        <v>1.607496057036236</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>11.264900924308261</v>
+        <v>1.607496057036236</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>11.264900924308261</v>
+        <v>1.607496057036236</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11.264900924308261</v>
+        <v>1.607496057036236</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11.264900924308261</v>
+        <v>1.607496057036236</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>11.264900924308261</v>
+        <v>1.607496057036236</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>11.038710448117785</v>
+        <v>1.607496057036236</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6071637069348084</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6071637069348084</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6071637069348084</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6071637069348084</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6071637069348084</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6067060649229148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>11.038710448117785</v>
+        <v>1.606365041529934</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>11.038710448117785</v>
+        <v>1.6059856427237624</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11.038710448117785</v>
+        <v>1.60435429262654</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>11.038710448117785</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603974684534281</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6035087936777825</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603095409779505</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603095409779505</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603095409779505</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603095409779505</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603095409779505</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603095409779505</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>9.205377114784453</v>
+        <v>1.603095409779505</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6027351668052336</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6027351668052336</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6027351668052336</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6027351668052336</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6027351668052336</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>9.205377114784453</v>
+        <v>1.6027351668052336</v>
       </c>
     </row>
   </sheetData>

--- a/Fitness.xlsx
+++ b/Fitness.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B992"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -72,2507 +72,4957 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.6186285587908118</v>
+        <v>83716.74465578268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.6186285587908118</v>
+        <v>82347.95403905837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.6186285587908118</v>
+        <v>78286.78057443516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.6186285587908118</v>
+        <v>77603.92805287467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.6186285587908118</v>
+        <v>82497.3691894703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.6186285587908118</v>
+        <v>78422.86212803957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.6186285587908118</v>
+        <v>81107.52900985093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.6186285587908118</v>
+        <v>76787.67946990345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.6186285587908118</v>
+        <v>81250.06443817836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.6186285587908118</v>
+        <v>75841.16271335889</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.6186285587908118</v>
+        <v>79796.96951691086</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.6186285587908118</v>
+        <v>83970.9101445819</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.6186285587908118</v>
+        <v>76698.18404254837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.6186285587908118</v>
+        <v>82278.84412434247</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.6186285587908118</v>
+        <v>80346.43922249731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.6186285587908118</v>
+        <v>84030.81388380878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.6186285587908118</v>
+        <v>80423.19069174258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.6186285587908118</v>
+        <v>79773.51958725537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.6186285587908118</v>
+        <v>78658.27097215387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.6186285587908118</v>
+        <v>76389.69075507637</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.6186285587908118</v>
+        <v>76163.93146530888</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.6186285587908118</v>
+        <v>80713.122902189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.6186285587908118</v>
+        <v>78170.82345078558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.6186285587908118</v>
+        <v>76448.18486858865</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.6186285587908118</v>
+        <v>83322.77888757028</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.6186285587908118</v>
+        <v>73013.50497811793</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.6186285587908118</v>
+        <v>73013.50497811793</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.6186285587908118</v>
+        <v>73013.50497811793</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.6186285587908118</v>
+        <v>73013.50497811793</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.6186285587908118</v>
+        <v>76433.7982696044</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.6186285587908118</v>
+        <v>77902.10950602517</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.6186285587908118</v>
+        <v>75428.12451261224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.6186285587908118</v>
+        <v>80000.80274301242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.6186285587908118</v>
+        <v>77824.7385674346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.6186285587908118</v>
+        <v>78039.01230180761</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.6186285587908118</v>
+        <v>84264.3254666312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.6186285587908118</v>
+        <v>79374.42984818654</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.6186285587908118</v>
+        <v>75144.62999103448</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.6186285587908118</v>
+        <v>75144.62999103448</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.6186285587908118</v>
+        <v>75144.62999103448</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.6186285587908118</v>
+        <v>75144.62999103448</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.6186285587908118</v>
+        <v>79734.28168198047</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.6186285587908118</v>
+        <v>80835.81916101486</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.6186285587908118</v>
+        <v>87231.93139446428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.6186285587908118</v>
+        <v>84933.69128815096</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.6186285587908118</v>
+        <v>83086.55351984457</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.6186285587908118</v>
+        <v>79302.74761569484</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.6186285587908118</v>
+        <v>82570.5098202007</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.6186285587908118</v>
+        <v>80462.46194893394</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.6186285587908118</v>
+        <v>81401.45577275597</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.6186285587908118</v>
+        <v>82499.198993025</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.6186285587908118</v>
+        <v>76551.70211280635</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6186285587908118</v>
+        <v>84380.78227089018</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6169391717308694</v>
+        <v>80859.59267112605</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6169391717308694</v>
+        <v>77785.24991876063</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.6169391717308694</v>
+        <v>79258.31276020686</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.6169391717308694</v>
+        <v>79260.60580684397</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.6167987444145118</v>
+        <v>83083.88862771493</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.6167987444145118</v>
+        <v>83375.08929247617</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.6154359999987684</v>
+        <v>82260.03034390899</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.6154359999987684</v>
+        <v>7.382387864741099</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.6148781974905395</v>
+        <v>76422.20708867026</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.6148781974905395</v>
+        <v>80079.47713295263</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.6148781974905395</v>
+        <v>81245.76153085088</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.6148781974905395</v>
+        <v>78461.23260968235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.6148781974905395</v>
+        <v>80116.11705612243</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.6148781974905395</v>
+        <v>76062.23297247804</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.6148781974905395</v>
+        <v>81420.44381007286</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.6148781974905395</v>
+        <v>78518.14568207132</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.6148781974905395</v>
+        <v>77848.96093159234</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.6148781974905395</v>
+        <v>84179.72819634472</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.6148781974905395</v>
+        <v>76830.64487605474</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16216.923928039178</v>
+        <v>83737.31102646835</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.6117380160077972</v>
+        <v>78384.95695992262</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.6117380160077972</v>
+        <v>78743.11572123565</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.6117380160077972</v>
+        <v>77970.16426201967</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.6117380160077972</v>
+        <v>78820.83890126194</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.6117380160077972</v>
+        <v>82971.3894248927</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.6117380160077972</v>
+        <v>78060.36150870561</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.6117380160077972</v>
+        <v>75963.4635504058</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.6110167116840997</v>
+        <v>75481.2353457456</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.6110167116840997</v>
+        <v>75481.2353457456</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.6110167116840997</v>
+        <v>81835.3950582447</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.6110167116840997</v>
+        <v>75906.86409189289</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.6105020613238001</v>
+        <v>81647.41173495069</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.6105020613238001</v>
+        <v>80606.75318749553</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.6105020613238001</v>
+        <v>77610.31586859626</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.6105020613238001</v>
+        <v>76933.05259705627</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.6105020613238001</v>
+        <v>76950.55629058476</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.6105020613238001</v>
+        <v>78590.0864817129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.6105020613238001</v>
+        <v>79797.03592429684</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.6105020613238001</v>
+        <v>79492.43885137532</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.6105020613238001</v>
+        <v>79044.92919723032</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.6095045583969345</v>
+        <v>76980.29609236056</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.6095045583969345</v>
+        <v>74184.22906513565</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.6095045583969345</v>
+        <v>86014.35262128888</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>16147.545262329886</v>
+        <v>78951.09442958616</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.607496057036236</v>
+        <v>75857.61786520264</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.607496057036236</v>
+        <v>79569.83588244003</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.607496057036236</v>
+        <v>79994.20658371947</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.607496057036236</v>
+        <v>77273.09360745923</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.607496057036236</v>
+        <v>77734.55873534721</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.607496057036236</v>
+        <v>77168.53300636784</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.607496057036236</v>
+        <v>79611.85213114067</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.6071637069348084</v>
+        <v>76216.4149551594</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.6071637069348084</v>
+        <v>77804.05967037314</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.6071637069348084</v>
+        <v>77333.15555822</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.6071637069348084</v>
+        <v>83305.51800886357</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.6071637069348084</v>
+        <v>82083.34967842225</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.6067060649229148</v>
+        <v>75737.81696601985</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.6067060649229148</v>
+        <v>75737.81696601985</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.6067060649229148</v>
+        <v>78294.81647263718</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.6067060649229148</v>
+        <v>78698.61293835363</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.6067060649229148</v>
+        <v>79105.40110089672</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.6067060649229148</v>
+        <v>79228.5538624962</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.6067060649229148</v>
+        <v>83937.37835879427</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.6067060649229148</v>
+        <v>80826.9575685563</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.6067060649229148</v>
+        <v>81151.14365181205</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.6067060649229148</v>
+        <v>79854.46807727811</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.6067060649229148</v>
+        <v>77044.96000832712</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.6067060649229148</v>
+        <v>76424.64157385028</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.6067060649229148</v>
+        <v>73857.70063216124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.6067060649229148</v>
+        <v>76727.09076079246</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.6067060649229148</v>
+        <v>80213.76777531562</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.6067060649229148</v>
+        <v>78675.26966233765</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.6067060649229148</v>
+        <v>79594.01369559442</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.6067060649229148</v>
+        <v>79110.78313239019</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.6067060649229148</v>
+        <v>75377.31351985896</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.6067060649229148</v>
+        <v>75377.31351985896</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.6067060649229148</v>
+        <v>75377.31351985896</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.6067060649229148</v>
+        <v>75377.31351985896</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.6067060649229148</v>
+        <v>78886.02113269428</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.6067060649229148</v>
+        <v>76403.22149417042</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.6067060649229148</v>
+        <v>76535.89694190468</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.606365041529934</v>
+        <v>79373.2279566713</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.606365041529934</v>
+        <v>77912.12900708918</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.606365041529934</v>
+        <v>83335.19311585634</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.606365041529934</v>
+        <v>78536.4034077095</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.606365041529934</v>
+        <v>80774.40889534727</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.606365041529934</v>
+        <v>77370.06851092847</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.606365041529934</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.6059856427237624</v>
+        <v>74913.9052714367</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.6059856427237624</v>
+        <v>77019.17643338395</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.6059856427237624</v>
+        <v>77504.11328015997</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.6059856427237624</v>
+        <v>80643.20828045183</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.6059856427237624</v>
+        <v>78092.7262513896</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.6059856427237624</v>
+        <v>77046.11868554592</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.6059856427237624</v>
+        <v>76368.76200158385</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.6059856427237624</v>
+        <v>78253.2955566486</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.6059856427237624</v>
+        <v>77421.1525706562</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.60435429262654</v>
+        <v>76863.73541614144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.60435429262654</v>
+        <v>83018.88689321386</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.60435429262654</v>
+        <v>77844.84098573076</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.60435429262654</v>
+        <v>78249.75535681933</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.60435429262654</v>
+        <v>80781.21146172563</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.60435429262654</v>
+        <v>78304.46507121723</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.60435429262654</v>
+        <v>76179.32406788142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.60435429262654</v>
+        <v>76934.7924267039</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.60435429262654</v>
+        <v>84710.20767577272</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.60435429262654</v>
+        <v>76979.12600272971</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.60435429262654</v>
+        <v>80702.6154641367</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.603974684534281</v>
+        <v>79718.63598604519</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.603974684534281</v>
+        <v>76630.42776388205</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.603974684534281</v>
+        <v>80428.77524749491</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.603974684534281</v>
+        <v>75952.81409976509</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.603974684534281</v>
+        <v>76436.71105691021</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.603974684534281</v>
+        <v>77783.2744528548</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.603974684534281</v>
+        <v>78130.19555011709</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.603974684534281</v>
+        <v>79933.08559698428</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.603974684534281</v>
+        <v>80136.76762703294</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.603974684534281</v>
+        <v>81336.20361894254</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.603974684534281</v>
+        <v>76552.25592079239</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.603974684534281</v>
+        <v>77751.2224691103</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.603974684534281</v>
+        <v>75872.57662879853</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.603974684534281</v>
+        <v>80598.65056447333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.603974684534281</v>
+        <v>83720.70663475405</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.603974684534281</v>
+        <v>80901.34042406593</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.603974684534281</v>
+        <v>81571.61585466335</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.603974684534281</v>
+        <v>81368.52523509905</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.603974684534281</v>
+        <v>80054.05703417008</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.603974684534281</v>
+        <v>78733.13096024426</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.603974684534281</v>
+        <v>81370.27612192823</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.603974684534281</v>
+        <v>77412.51856642056</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.603974684534281</v>
+        <v>78756.00994303347</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.603974684534281</v>
+        <v>87853.67311112465</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.603974684534281</v>
+        <v>82981.75158673427</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.603974684534281</v>
+        <v>77198.58301444181</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.603974684534281</v>
+        <v>77963.35255703174</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.603974684534281</v>
+        <v>81653.59182690446</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.603974684534281</v>
+        <v>82456.7067839821</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1.603974684534281</v>
+        <v>79866.79127724389</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.603974684534281</v>
+        <v>79859.62961913466</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.603974684534281</v>
+        <v>78026.3093644437</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.603974684534281</v>
+        <v>79727.65868798645</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1.603974684534281</v>
+        <v>80147.73109868866</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1.603974684534281</v>
+        <v>80575.29936406622</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1.603974684534281</v>
+        <v>80079.07676970224</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.603974684534281</v>
+        <v>81521.36246325819</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.603974684534281</v>
+        <v>78326.03892792911</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.603974684534281</v>
+        <v>85618.8062809544</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.603974684534281</v>
+        <v>82201.38627386965</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.603974684534281</v>
+        <v>79974.24724262269</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.603974684534281</v>
+        <v>78494.97418833876</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.603974684534281</v>
+        <v>79214.7030774635</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.603974684534281</v>
+        <v>82344.4639853585</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.603974684534281</v>
+        <v>77159.44894248937</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1.603974684534281</v>
+        <v>77856.04301695012</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.603974684534281</v>
+        <v>80026.90729680195</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.603974684534281</v>
+        <v>81935.14613296573</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.603974684534281</v>
+        <v>80843.0477960623</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1.603974684534281</v>
+        <v>74370.51425189848</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.603974684534281</v>
+        <v>81629.6729176488</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1.603974684534281</v>
+        <v>81662.74732529951</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.603974684534281</v>
+        <v>76237.89415334635</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.603974684534281</v>
+        <v>78812.88763060427</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1.603974684534281</v>
+        <v>77513.28638440756</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1.603974684534281</v>
+        <v>81802.79576066337</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.603974684534281</v>
+        <v>83187.2782566803</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.603974684534281</v>
+        <v>79843.89823377799</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.603974684534281</v>
+        <v>78854.82617134122</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.603974684534281</v>
+        <v>84277.32428582558</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.603974684534281</v>
+        <v>82336.80714491148</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.603974684534281</v>
+        <v>77671.86843637076</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.603974684534281</v>
+        <v>83319.52237618966</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1.603974684534281</v>
+        <v>81319.14075069633</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.603974684534281</v>
+        <v>82311.23514447345</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.603974684534281</v>
+        <v>79925.88093444692</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.603974684534281</v>
+        <v>81578.64173603972</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1.603974684534281</v>
+        <v>82339.52332120827</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1.603974684534281</v>
+        <v>77936.06705444341</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.603974684534281</v>
+        <v>80246.0914204377</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.603974684534281</v>
+        <v>78196.14223100783</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.603974684534281</v>
+        <v>81077.05959203496</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.603974684534281</v>
+        <v>79642.39206292496</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.603974684534281</v>
+        <v>80841.25780525358</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.603974684534281</v>
+        <v>82973.70388924838</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.603974684534281</v>
+        <v>76884.49340895037</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1.603974684534281</v>
+        <v>83287.94606563829</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.603974684534281</v>
+        <v>81237.35287740458</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1.603974684534281</v>
+        <v>75482.05886755108</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1.603974684534281</v>
+        <v>75482.05886755108</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.603974684534281</v>
+        <v>77215.58806388707</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.603974684534281</v>
+        <v>76953.08018708203</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1.603974684534281</v>
+        <v>78981.56616685439</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.603974684534281</v>
+        <v>84297.71384227043</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.603974684534281</v>
+        <v>78405.23368728497</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1.603974684534281</v>
+        <v>80756.02966950694</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1.603974684534281</v>
+        <v>82349.79194780474</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.603974684534281</v>
+        <v>80301.7708791498</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.603974684534281</v>
+        <v>78702.13223339272</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.603974684534281</v>
+        <v>86998.2200378577</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.603974684534281</v>
+        <v>77714.57331429976</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1.603974684534281</v>
+        <v>78109.5636408955</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1.603974684534281</v>
+        <v>78629.56197891502</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1.603974684534281</v>
+        <v>77215.38204009317</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1.603974684534281</v>
+        <v>78319.23334483869</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1.603974684534281</v>
+        <v>82022.04666096579</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1.603974684534281</v>
+        <v>79565.58158737837</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1.603974684534281</v>
+        <v>78508.02101123557</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1.603974684534281</v>
+        <v>76456.87924975075</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.603974684534281</v>
+        <v>77120.54891236707</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1.603974684534281</v>
+        <v>76826.72345414136</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.603974684534281</v>
+        <v>78018.29889628896</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1.603974684534281</v>
+        <v>78866.45386842982</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1.603974684534281</v>
+        <v>79218.61323760859</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1.603974684534281</v>
+        <v>77510.93442751729</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.603974684534281</v>
+        <v>80643.90075475663</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.603974684534281</v>
+        <v>82200.15744121092</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1.603974684534281</v>
+        <v>76952.00856554725</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1.603974684534281</v>
+        <v>77898.86811313307</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1.603974684534281</v>
+        <v>78103.3551730117</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1.603974684534281</v>
+        <v>79148.08063788807</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1.603974684534281</v>
+        <v>79991.28466769215</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.603974684534281</v>
+        <v>79523.49951647322</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.603974684534281</v>
+        <v>78730.40009458295</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.603974684534281</v>
+        <v>78257.32036375378</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1.603974684534281</v>
+        <v>80762.86774025133</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1.603974684534281</v>
+        <v>83859.94701266599</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1.603974684534281</v>
+        <v>78480.71906357794</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1.603974684534281</v>
+        <v>81899.96576249955</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1.603974684534281</v>
+        <v>77500.3458127783</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1.603974684534281</v>
+        <v>80081.40492515179</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1.603974684534281</v>
+        <v>79909.55815096255</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1.603974684534281</v>
+        <v>77764.02214755905</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1.603974684534281</v>
+        <v>78688.860815996</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1.603974684534281</v>
+        <v>82053.80081113262</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1.603974684534281</v>
+        <v>78113.45560927594</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.603974684534281</v>
+        <v>78682.46304156528</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1.603974684534281</v>
+        <v>80217.5681641451</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1.603974684534281</v>
+        <v>80005.68267315606</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1.603974684534281</v>
+        <v>81463.84718765834</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.603974684534281</v>
+        <v>78610.42632284258</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1.603974684534281</v>
+        <v>79011.69347181213</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1.603974684534281</v>
+        <v>79967.19580268401</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1.603974684534281</v>
+        <v>78557.84391126553</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1.603974684534281</v>
+        <v>77018.04417100646</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1.603974684534281</v>
+        <v>76396.58078986712</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1.603974684534281</v>
+        <v>78133.88350522556</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1.603974684534281</v>
+        <v>78610.72826006287</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1.603974684534281</v>
+        <v>78484.83814155763</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1.603974684534281</v>
+        <v>76801.00328857126</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1.603974684534281</v>
+        <v>79852.20909545259</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1.603974684534281</v>
+        <v>79360.81592491317</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1.603974684534281</v>
+        <v>80615.13541377724</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1.603974684534281</v>
+        <v>81765.95792792829</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1.603974684534281</v>
+        <v>82247.93229427976</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1.603974684534281</v>
+        <v>83607.64268340495</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1.603974684534281</v>
+        <v>77350.58406984639</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1.603974684534281</v>
+        <v>78222.90220187909</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1.603974684534281</v>
+        <v>76922.26421129603</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1.603974684534281</v>
+        <v>77518.15798372038</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1.603974684534281</v>
+        <v>76157.34861190461</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1.603974684534281</v>
+        <v>82319.21874529423</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1.603974684534281</v>
+        <v>80054.25818163804</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1.603974684534281</v>
+        <v>78216.36122042417</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1.603974684534281</v>
+        <v>81455.17828940102</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1.603974684534281</v>
+        <v>80889.43763810668</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1.603974684534281</v>
+        <v>77815.08372702668</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1.603974684534281</v>
+        <v>80277.5041371336</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1.603974684534281</v>
+        <v>76057.16328271397</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1.603974684534281</v>
+        <v>78558.334002618</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1.603974684534281</v>
+        <v>77920.01644356611</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1.603974684534281</v>
+        <v>80130.6014086303</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1.603974684534281</v>
+        <v>83305.51800886357</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1.603974684534281</v>
+        <v>78150.86141547782</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1.603974684534281</v>
+        <v>75769.4015128293</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1.603974684534281</v>
+        <v>75769.4015128293</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1.603974684534281</v>
+        <v>77671.97608867894</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1.603974684534281</v>
+        <v>78867.30282778737</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1.603974684534281</v>
+        <v>82077.57604315333</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1.603974684534281</v>
+        <v>79399.9718320076</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1.603974684534281</v>
+        <v>76525.16771823319</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1.603974684534281</v>
+        <v>80927.25797813022</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1.603974684534281</v>
+        <v>79538.18414981804</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1.603974684534281</v>
+        <v>80428.77524749491</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1.603974684534281</v>
+        <v>75883.70807200267</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1.603974684534281</v>
+        <v>79388.02753888487</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1.603974684534281</v>
+        <v>76868.07370328474</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1.603974684534281</v>
+        <v>78076.78925091527</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1.603974684534281</v>
+        <v>80606.87708645269</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1.603974684534281</v>
+        <v>77120.65578011429</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1.603974684534281</v>
+        <v>78541.38169394381</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1.603974684534281</v>
+        <v>75426.49623392386</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1.603974684534281</v>
+        <v>79789.26426200785</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1.603974684534281</v>
+        <v>82868.27085999277</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1.603974684534281</v>
+        <v>83043.82457372197</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1.603974684534281</v>
+        <v>81286.49078346745</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1.603974684534281</v>
+        <v>77495.70257880622</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1.603974684534281</v>
+        <v>77943.04850742282</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1.603974684534281</v>
+        <v>77533.00920205933</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1.603974684534281</v>
+        <v>79699.48064825016</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1.603974684534281</v>
+        <v>76846.97087511275</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1.603974684534281</v>
+        <v>78167.07692529922</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1.603974684534281</v>
+        <v>77327.4286957241</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1.603974684534281</v>
+        <v>80565.56100978336</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1.603974684534281</v>
+        <v>82390.28429391263</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1.603974684534281</v>
+        <v>74812.47613313196</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1.603974684534281</v>
+        <v>73431.5985320653</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1.603974684534281</v>
+        <v>73431.5985320653</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1.603974684534281</v>
+        <v>76587.24862259252</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1.603974684534281</v>
+        <v>81744.79855421024</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1.603974684534281</v>
+        <v>80059.67870102044</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1.603974684534281</v>
+        <v>77928.16429122473</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1.603974684534281</v>
+        <v>83460.11867666323</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1.603974684534281</v>
+        <v>78985.63314194571</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1.603974684534281</v>
+        <v>78490.05015101214</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1.603974684534281</v>
+        <v>80756.48138099839</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1.603974684534281</v>
+        <v>76414.33000220703</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1.603974684534281</v>
+        <v>77407.62826397309</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1.603974684534281</v>
+        <v>76940.44782939236</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1.603974684534281</v>
+        <v>81565.50759760413</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1.603974684534281</v>
+        <v>77450.29595643721</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1.603974684534281</v>
+        <v>81401.56066002144</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1.603974684534281</v>
+        <v>82793.35926982519</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>1.603974684534281</v>
+        <v>79034.362348184</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1.603974684534281</v>
+        <v>77794.34277050913</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1.603974684534281</v>
+        <v>76811.06866451856</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1.603974684534281</v>
+        <v>78964.53366150976</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1.603974684534281</v>
+        <v>83281.03151365873</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1.603974684534281</v>
+        <v>81121.03202880212</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1.603974684534281</v>
+        <v>76498.03120968225</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1.603974684534281</v>
+        <v>76761.82068067807</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1.603974684534281</v>
+        <v>79724.39207712321</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1.603974684534281</v>
+        <v>79646.72670811099</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1.603974684534281</v>
+        <v>78168.08296372386</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1.603974684534281</v>
+        <v>79617.38615233965</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1.603974684534281</v>
+        <v>77552.88807804321</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1.603974684534281</v>
+        <v>77161.80298869901</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1.603974684534281</v>
+        <v>78490.05015101214</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1.603974684534281</v>
+        <v>78943.53584323246</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1.603974684534281</v>
+        <v>81055.88809708529</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1.603974684534281</v>
+        <v>79381.30971981642</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1.603974684534281</v>
+        <v>75232.61468570969</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1.603974684534281</v>
+        <v>80676.35127914956</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1.603974684534281</v>
+        <v>81009.96953243764</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1.603974684534281</v>
+        <v>77566.64131041775</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1.603974684534281</v>
+        <v>77694.23701434983</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1.603974684534281</v>
+        <v>76062.23297247804</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1.603974684534281</v>
+        <v>81021.52701039806</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1.603974684534281</v>
+        <v>77094.87769114366</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1.603974684534281</v>
+        <v>78699.22475225134</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1.603974684534281</v>
+        <v>77867.14455409844</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1.603974684534281</v>
+        <v>77719.31728996146</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1.603974684534281</v>
+        <v>78749.37153074518</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1.603974684534281</v>
+        <v>79160.02417502784</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1.603974684534281</v>
+        <v>78980.33767773736</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.603974684534281</v>
+        <v>79319.97453479221</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1.603974684534281</v>
+        <v>79994.66514251701</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1.603974684534281</v>
+        <v>77743.9231366829</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1.603974684534281</v>
+        <v>82347.08260241756</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1.603974684534281</v>
+        <v>78718.00404452765</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1.603974684534281</v>
+        <v>77048.12206168292</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1.603974684534281</v>
+        <v>79756.53432203879</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1.603974684534281</v>
+        <v>79889.8339463863</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1.603974684534281</v>
+        <v>77705.26166836561</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1.603974684534281</v>
+        <v>79779.51306916414</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1.603974684534281</v>
+        <v>79384.35468096145</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1.603974684534281</v>
+        <v>79203.0297520175</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1.603974684534281</v>
+        <v>78871.5943816859</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.603974684534281</v>
+        <v>75781.55688077083</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1.603974684534281</v>
+        <v>75781.55688077083</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1.603974684534281</v>
+        <v>80290.92289020015</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1.603974684534281</v>
+        <v>76449.60165088637</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1.603974684534281</v>
+        <v>78920.36803790418</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1.603974684534281</v>
+        <v>77255.06495196924</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1.603974684534281</v>
+        <v>76916.93770997437</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1.603974684534281</v>
+        <v>83248.74398701095</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.603974684534281</v>
+        <v>82971.3894248927</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1.603974684534281</v>
+        <v>77252.29190448222</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1.603974684534281</v>
+        <v>79497.7382802794</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1.603974684534281</v>
+        <v>80782.03768382149</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1.603974684534281</v>
+        <v>80781.21146172563</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1.603974684534281</v>
+        <v>76785.52661008721</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1.6035087936777825</v>
+        <v>78813.11218535824</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1.6035087936777825</v>
+        <v>77612.14281276768</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1.6035087936777825</v>
+        <v>75236.0313868239</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1.6035087936777825</v>
+        <v>75236.0313868239</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1.6035087936777825</v>
+        <v>75236.0313868239</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1.6035087936777825</v>
+        <v>75236.0313868239</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1.6035087936777825</v>
+        <v>75236.0313868239</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1.6035087936777825</v>
+        <v>75236.0313868239</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1.6035087936777825</v>
+        <v>77282.09697647238</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1.6035087936777825</v>
+        <v>77660.74700323198</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1.603095409779505</v>
+        <v>77121.3179780503</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1.603095409779505</v>
+        <v>76790.11735693646</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1.603095409779505</v>
+        <v>80816.60031702963</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1.603095409779505</v>
+        <v>78128.1135897745</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1.603095409779505</v>
+        <v>77857.1564122731</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1.603095409779505</v>
+        <v>76166.21909331456</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1.603095409779505</v>
+        <v>81541.53559752242</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1.6027351668052336</v>
+        <v>75688.36200603381</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1.6027351668052336</v>
+        <v>77727.12044707521</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1.6027351668052336</v>
+        <v>81462.10524717042</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1.6027351668052336</v>
+        <v>80514.98065396969</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1.6027351668052336</v>
+        <v>79563.83229776665</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1.6027351668052336</v>
+        <v>79355.9039820306</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>81161.53293942548</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>82155.21045922143</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>80062.01308344708</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>78671.02750509622</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>81003.55892297965</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>83493.97211279575</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>82797.649506834</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>78141.37538771711</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>77669.67049533481</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>76886.42390758556</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>79613.54184748748</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>78681.2900965957</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>81410.52490650782</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>75116.02654458617</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>74887.67163634536</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>80816.60031702963</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>77911.79771588003</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>84554.99141959772</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>79576.4887114439</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>80137.08971517712</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>78382.63553681204</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>78124.46956079167</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>79622.6211527176</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>75875.22991443475</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>78537.41335664391</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>78429.3202324841</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>78272.29200875951</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>80616.36515089255</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>77970.72694409352</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>78214.21003942585</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>77683.5864584199</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>77580.73868316785</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>78381.53134261795</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>80000.89344288861</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>80289.3547397469</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>81725.43647347235</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>81607.66227208382</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>77970.72694409352</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>83086.55351984457</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>79234.14259992048</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>80419.79974166567</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>80460.53969414611</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>84279.58950327638</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>77794.64068550088</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>77123.14118108318</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>82991.37490200906</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>76987.10186312434</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>78459.35328030579</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>79436.65248445125</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>75580.19472545225</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>77619.52404000526</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>75894.80758269785</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>77820.93659294977</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>80996.17772021801</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>74948.27471199153</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>81256.44851361698</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>81643.07102951872</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>77146.75969524174</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>78889.99957012507</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>76590.8427955173</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>76821.41391169404</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>79452.8574323712</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>83637.29494197134</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>77013.70250590118</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>7.332714893073337</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>7.332714893073337</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>79969.8546066455</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>79110.71247231879</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>76743.8082248237</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>77755.3622928269</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>79117.93691588705</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>83795.39620119907</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>80606.75318749553</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>77083.87247099122</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>81602.11620380278</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>82284.87780901985</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>81259.03811003905</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>75565.89933956206</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>75565.89933956206</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>77406.19505318091</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>78490.18757111506</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>78663.58765226298</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>78363.46090694221</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>80962.62425102943</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>77989.31691163137</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>80441.28935417905</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>79398.2447534579</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>76614.54667554484</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>78779.8829158653</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>78128.53341153817</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>76116.99766842215</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>76553.67628380911</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>77066.54614685492</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>76601.14210580227</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>78116.0745069285</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>77431.84670430307</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>82644.02376623632</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>77809.23351880572</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>77596.09746906812</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>76609.62943662518</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>82303.88001785876</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>76741.60282259196</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>80039.4710689239</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>78249.00544438354</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>76794.55625252254</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>79020.09206425786</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>80673.1094504135</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>77643.37128420219</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>78023.22508292845</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>79033.27217446682</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>79906.98337908319</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>79484.78641073054</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>77341.82839095214</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>79493.95017258695</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>77297.956642661</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>75454.97640468685</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>77166.07079654315</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>75357.78515055418</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>78575.48548786397</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>82671.65182915537</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>77886.48131694972</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>78889.99957012507</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>75937.98680560323</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>80022.15987100753</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>77042.4182464955</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>80211.30566600629</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>78566.86248483666</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>80845.49576344207</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>75989.67335277461</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>81210.74855874435</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>80023.4692612769</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>81581.3127818663</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>75059.80968573235</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>75668.74423387632</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>79196.80097807477</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>76558.18109432963</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>77788.71320885856</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>78624.38193030738</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>80724.52437295712</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>81531.97027708299</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>80657.62045927171</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>77447.97736351175</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>79381.42017739284</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>78220.49970508293</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>79113.12778785739</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>79716.49541757892</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>79535.06644624993</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>78464.06111606196</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>77713.11356484635</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>78168.47426803967</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>77210.79647267783</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>79423.1796943306</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>78139.26196336486</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>76552.25592079239</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>76552.25592079239</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>78708.91607343471</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>79553.82502748536</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>80165.72796863034</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>81410.1920912816</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>76378.51809129697</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>77809.23351880572</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>80652.67794812561</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>75614.33499031082</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>77787.07074136393</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>81205.5383532611</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>78719.30607188676</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>79894.05573166402</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>76634.51162203723</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>75461.77561473321</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>77161.78518677522</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>80614.14678441366</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>80614.14678441366</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>76057.16328271397</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>80428.77524749491</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>78031.88828467879</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>77360.22458661537</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>76802.20968703809</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>77911.28564459171</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>78513.10505317608</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>78513.10505317608</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>80816.60031702963</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>79912.77731762348</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>76623.37398427875</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>81647.41173495069</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>79323.81510878776</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>79493.95017258695</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>80194.43986446492</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>79487.99241393407</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>76065.63678638409</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>81636.42427705969</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>79435.1421214812</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>77084.16616918627</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>79424.26411200492</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>77530.71521254172</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>82204.81350912932</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>78687.69394407036</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>81314.48283885639</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>80240.88822946088</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>77451.32634403718</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>82084.61473346736</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>80097.70657232359</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>78676.22025992665</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>79120.08032855917</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>79248.69953526498</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>82589.87601279888</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>77477.10740021047</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>78088.62029129929</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>79789.26426200785</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>77743.9231366829</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>76314.75432456826</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>79845.14153962412</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>82347.08260241756</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>77092.117521393</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>81725.43647347235</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>78361.54150694986</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>76252.29301485146</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>79171.82489140582</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>78345.37725887909</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>79436.65248445125</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>75937.41660539644</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>79121.27799429983</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>77761.86018438365</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>77761.86018438365</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>77759.94870268607</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>79145.78791181433</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>79467.28134061146</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>79079.1489806911</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>79331.74518079951</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>75864.40927197726</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>74751.837153889</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>76927.44227351222</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>82263.29158438955</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>79179.10748137429</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>77522.16572710665</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>80922.50955568167</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>77402.44585067796</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>77079.3543169752</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>79939.70643070432</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>83319.52237618966</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>79292.09451019768</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>76610.04859033997</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>81355.38997577883</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>78657.74114656138</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>77009.98602451639</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>78775.98836725773</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>76740.493649483</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>77001.31567838327</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>76916.70220456176</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>77563.6573508699</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>76127.67666415959</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>80007.65743999147</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>80575.29936406622</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>78149.95234088403</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>77165.4624565606</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>78233.25851801307</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>79446.71053552981</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>75580.19472545225</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>77227.61780829912</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>78096.22629890461</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>77379.4938148845</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>77954.2623985371</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>82746.06024827228</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>79525.68571264477</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>80276.55602517384</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>78395.89225578668</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>78730.29773172112</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>77471.11779428182</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>77421.5928905532</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>78623.35777128878</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>78137.43425553692</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>80629.77671203575</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>81494.65039883157</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>79957.15101979002</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>76680.64142646053</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>81183.90355580581</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>79609.62279802933</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>76017.16191051643</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>76385.34731626656</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>79540.68881536323</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>73851.92665314821</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>78421.21184103003</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>75271.37535256398</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>76547.35432515174</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>81724.31203233192</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>76383.60179260837</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>78253.2955566486</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>78512.31440964687</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>79872.01346826018</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>75937.41660539644</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>80211.30566600629</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>80111.91019982955</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>78858.00940081233</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>78209.28618154496</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>80903.79426415343</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>79366.20419817626</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>79670.6246445631</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>76125.17094048524</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>78366.26736770265</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>76572.8640080896</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>78299.14649561685</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>76881.15600244503</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>78545.68354818471</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>75938.40271837935</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>74851.6661382099</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>74851.6661382099</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>74851.6661382099</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>74851.6661382099</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>79761.5052587184</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>78515.48417761794</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>79921.9556634824</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>78236.15550118426</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>76712.44027317585</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>79979.07737233455</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>76589.23435903665</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>75836.05069131685</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>79190.90828350888</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>79410.25377658308</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>76276.43599082915</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>76173.02526924228</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>78890.54041737001</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>79725.93453429299</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>78740.20661812503</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>76651.74646561043</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>76623.80065348718</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>75733.61035239806</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>75733.61035239806</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>77448.1879666804</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>75633.1913220523</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>82962.49300913063</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>81295.19699517736</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>78086.36277524693</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>77166.28673535162</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>76769.83670039766</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>80104.60941518655</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>76359.36221165965</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>82137.31581659228</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>79494.9246736007</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>76478.21152959482</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>79444.85727545814</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>78082.92697758008</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>77222.30900763965</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>81648.65964643692</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>80236.53598321363</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>80793.184786141</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>76510.36647635908</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>75305.8374188787</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>77910.07631026817</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>79801.86021034687</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>74678.8764225124</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>81651.04766935945</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>78018.025505292</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>75705.88817457709</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>77577.99345873207</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>78490.90014907059</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>79603.93341523861</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>75884.16828725016</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>76654.7175640308</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>80997.13564846512</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>77933.54968093675</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>77763.64887000482</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>76545.4557273158</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>76427.34067116457</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>77129.27763270629</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>76537.48959989821</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>77652.45106943973</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>76726.83730433804</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>83105.72732838127</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>79726.15677947349</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>76740.85280731562</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>76523.66399109899</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>78496.47445767994</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>76268.39548802383</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>77483.28925509963</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>79898.29485054979</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>78944.33453234594</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>76814.16489672539</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>75793.82358072454</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>77897.54202892203</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>79963.29819961167</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>76752.70512050837</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>79465.58007999521</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>79203.07318465768</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>80330.83663766418</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>79386.66290425356</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>80409.9416199659</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>77815.31376436251</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>82203.90396812191</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>79170.46224166863</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>83625.53948864824</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>77631.07912129573</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>77646.71634419069</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>81007.2280170978</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>78365.05428679769</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>86419.60321646878</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>78450.68720432738</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>79065.36124476268</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>76971.1244141859</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>81229.84010543233</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>75104.91053569899</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>82852.83542730415</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>78930.3886694828</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>75137.602613385</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>76971.56315167989</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>76493.51214648652</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>79010.4316868947</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>77800.47638184529</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>80797.44273934583</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>75914.13962102229</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>79739.37390235378</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>79364.77005050542</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>78955.09022996265</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>79683.10911709449</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>76621.26347939798</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>79553.47360273598</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>79656.88206579954</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>75035.46187344132</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>81595.2246097491</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>78252.72076366666</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>80956.43596231678</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>76907.05993237266</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>79714.99264748582</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>77794.31987798912</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>76761.91949534244</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>75716.3982852208</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>79129.99048587661</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>78200.47636270069</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>75566.37914411203</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>76888.47393906994</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>76196.53687412897</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>77048.58823212661</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>78540.82342728891</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>77688.6920115848</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>81296.05813508556</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>78331.2572331246</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>77794.34277050913</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>79377.03922985218</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>78592.61654464462</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>78064.3650270237</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>79479.8877875159</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>78227.00001238468</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>79036.68786469361</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>79423.50688149294</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>85525.10794807514</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>78829.5131969607</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>79962.5431259491</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>77544.68057801241</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>75988.3301271274</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>80092.14807577875</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>77712.01195448604</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>77474.06488544667</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>81413.37040114433</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>76974.1468684276</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>79040.31276530605</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>75526.62513288118</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>77692.85199202244</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>76567.24897654649</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>79561.7470508308</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>78233.16049793772</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>75557.84797439794</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>79023.19913534778</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>81023.29923088128</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>76633.59306389694</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>79994.97674266965</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>77222.09302238068</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>80991.03872855261</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>76752.16769618163</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>80451.48301578761</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>75959.04690061862</v>
       </c>
     </row>
   </sheetData>
